--- a/Benchmark-competencia.xlsx
+++ b/Benchmark-competencia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>TIPO EMPRESA</t>
   </si>
@@ -107,30 +107,9 @@
     <t>Parecen muy visuales y que hacen las cosas bien, sin embargo tienen el blog desactualizado y tienen un bajo posicionamiento SEO. Solo usan una red social activamente. Podemos posicionarnos en otras redes sociales, coger ideas de contenido y utilizar bien el blog para superarlos en Google.</t>
   </si>
   <si>
-    <t>Empresa 2</t>
-  </si>
-  <si>
-    <t>Pertenece a grupo X</t>
-  </si>
-  <si>
     <t>Tienen una web poco atractiva y poco intuitiva, sin mucha informacion. Tiene RRSS pero no sube contenido, y tiene el blog desactualizado. Creo que podríamos hacer las cosas mejor en el tema web y no parece dificil superarle en Google con una buena estrategia de contenido. Podemos destacar mucho más que él en RRSS</t>
   </si>
   <si>
-    <t>Empresa 3</t>
-  </si>
-  <si>
-    <t>Empresa 4</t>
-  </si>
-  <si>
-    <t>Empresa 5</t>
-  </si>
-  <si>
-    <t>Empresa 6</t>
-  </si>
-  <si>
-    <t>Empresa 7</t>
-  </si>
-  <si>
     <t>Empresa 8</t>
   </si>
   <si>
@@ -138,13 +117,175 @@
   </si>
   <si>
     <t>Empresa 10</t>
+  </si>
+  <si>
+    <t>https://www.fraileyblanco.com/</t>
+  </si>
+  <si>
+    <t>https://www.academiaemprende.com/index.php</t>
+  </si>
+  <si>
+    <t>https://www.alpeformacion.es/</t>
+  </si>
+  <si>
+    <t>https://www.campustraining.es</t>
+  </si>
+  <si>
+    <t>https://www.codicecantabria.com/</t>
+  </si>
+  <si>
+    <t>https://siliconformacion.com/contacto/</t>
+  </si>
+  <si>
+    <t>fraile y blanco</t>
+  </si>
+  <si>
+    <t>academiaemprende</t>
+  </si>
+  <si>
+    <t>alpeformacion</t>
+  </si>
+  <si>
+    <t>campustraining</t>
+  </si>
+  <si>
+    <t>codicecantabria</t>
+  </si>
+  <si>
+    <t>siliconformacion</t>
+  </si>
+  <si>
+    <t>Servicios de publicidad</t>
+  </si>
+  <si>
+    <t>Publicidad</t>
+  </si>
+  <si>
+    <t>Publicidad y marketing</t>
+  </si>
+  <si>
+    <t>No especificado</t>
+  </si>
+  <si>
+    <t>Web de facil navegación, contenido claro, tiene Twitter y Facebook</t>
+  </si>
+  <si>
+    <t>Ayto. Santander</t>
+  </si>
+  <si>
+    <t>74 PC, 69 MOVIL</t>
+  </si>
+  <si>
+    <t>Empresa privada con fondos publicos</t>
+  </si>
+  <si>
+    <t>Disponen de cursos gratuitos, legalidad y conectividad en tiempo real</t>
+  </si>
+  <si>
+    <t>Academia privada</t>
+  </si>
+  <si>
+    <t>Gratuito</t>
+  </si>
+  <si>
+    <t>Idiomas y certificados de profesionalidad</t>
+  </si>
+  <si>
+    <t>La Web Quiere ser completo pero está a medias</t>
+  </si>
+  <si>
+    <t>No resalta ningun caso de éxito</t>
+  </si>
+  <si>
+    <t>83 PC, 53 Movil</t>
+  </si>
+  <si>
+    <t>Conectividad y alta experiencia reconocida en lo que ofrecen</t>
+  </si>
+  <si>
+    <t>Formación subvencionada y preparacion de oposiciones</t>
+  </si>
+  <si>
+    <t>Gratuitos / 40 - 140 €</t>
+  </si>
+  <si>
+    <t>Web muy completa, obtienes la información que quieres</t>
+  </si>
+  <si>
+    <t>Tiene opiniones positivas de sus estudiantes</t>
+  </si>
+  <si>
+    <t>71 PC, 22 Movil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empresa privada </t>
+  </si>
+  <si>
+    <t>Formación muy diversa para jovenes y acompañamiento online ene l proceso</t>
+  </si>
+  <si>
+    <t>Formación profesional, preparacion de oposiciones y otros cursos</t>
+  </si>
+  <si>
+    <t>Muy facil de navegar, contacto facil y comoda</t>
+  </si>
+  <si>
+    <t>Tiene opiniones muy positivas de sus estudiantes y trabajadores</t>
+  </si>
+  <si>
+    <t>100 pc, 86 movil</t>
+  </si>
+  <si>
+    <t>Preparacion para el trabajo estable</t>
+  </si>
+  <si>
+    <t>Preparacion de oposiciones - Cantabria</t>
+  </si>
+  <si>
+    <t>42 - 490 €</t>
+  </si>
+  <si>
+    <t>Tarda en cargar es completa e inecesariamente llamativa</t>
+  </si>
+  <si>
+    <t>31 pc, 15 movil</t>
+  </si>
+  <si>
+    <t>Accedes mediante una de las ofertas de otrra pagina</t>
+  </si>
+  <si>
+    <t>Preparacion de oposiciones - España, formación subvencionada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muy descuidada e incompleta</t>
+  </si>
+  <si>
+    <t>98PC, 45 MOVIL</t>
+  </si>
+  <si>
+    <t>No publicitan los cursos</t>
+  </si>
+  <si>
+    <t>Muy extensa, tamaño de fotos exageradas y la web está a medias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La web está muy bien, pero no aprovechan las RRSS </t>
+  </si>
+  <si>
+    <t>Muy larga y bien seccionada. Buenas RRSS</t>
+  </si>
+  <si>
+    <t>Tarda en cargar, no utiliza RRSS, imágenes muy desproporcionadas</t>
+  </si>
+  <si>
+    <t>La empresa es hija de otra empresa y eso se refleja en su descuido online.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +340,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -230,6 +378,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -238,9 +401,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -251,9 +412,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -262,9 +421,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -275,46 +432,35 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -322,38 +468,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -569,15 +709,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="6" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
     <col min="7" max="7" width="29.140625" customWidth="1"/>
     <col min="8" max="9" width="30.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
@@ -599,106 +742,106 @@
     </row>
     <row r="3" spans="1:29" ht="27.75" customHeight="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="19"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="9"/>
     </row>
     <row r="4" spans="1:29" ht="70.5" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="6">
         <v>2</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="6">
         <v>1</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="11" t="s">
         <v>26</v>
       </c>
       <c r="R4" s="18"/>
@@ -708,35 +851,61 @@
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
       <c r="X4" s="18"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" ht="54.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="14">
+        <v>5502</v>
+      </c>
+      <c r="O5" s="14">
+        <v>171</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="21" t="s">
-        <v>29</v>
       </c>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
@@ -745,31 +914,59 @@
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
       <c r="X5" s="18"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29" ht="73.5" customHeight="1">
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="17"/>
+      <c r="B6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="12">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="14">
+        <v>103</v>
+      </c>
+      <c r="O6" s="14">
+        <v>17</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="19"/>
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
@@ -777,27 +974,55 @@
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
       <c r="X6" s="18"/>
-      <c r="Y6" s="19"/>
+      <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:29" ht="54.75" customHeight="1">
-      <c r="B7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="17"/>
+      <c r="B7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="12">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="14">
+        <v>290</v>
+      </c>
+      <c r="O7" s="17">
+        <v>55</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="19"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
@@ -805,27 +1030,55 @@
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
-      <c r="Y7" s="19"/>
+      <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="1:29" ht="54.75" customHeight="1">
-      <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="17"/>
+      <c r="B8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="12">
+        <v>100</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="17">
+        <v>10258</v>
+      </c>
+      <c r="O8" s="17">
+        <v>1051</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="19"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
@@ -833,27 +1086,55 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
       <c r="X8" s="18"/>
-      <c r="Y8" s="19"/>
+      <c r="Y8" s="18"/>
     </row>
     <row r="9" spans="1:29" ht="54.75" customHeight="1">
-      <c r="B9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="17"/>
+      <c r="B9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="12">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="17">
+        <v>2952</v>
+      </c>
+      <c r="O9" s="17">
+        <v>64</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="19"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
@@ -861,27 +1142,55 @@
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
-      <c r="Y9" s="19"/>
+      <c r="Y9" s="18"/>
     </row>
     <row r="10" spans="1:29" ht="54.75" customHeight="1">
-      <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="17"/>
+      <c r="B10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="12">
+        <v>20</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="17">
+        <v>0</v>
+      </c>
+      <c r="O10" s="17">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="19"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
@@ -889,27 +1198,27 @@
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
       <c r="X10" s="18"/>
-      <c r="Y10" s="19"/>
+      <c r="Y10" s="18"/>
     </row>
     <row r="11" spans="1:29" ht="54.75" customHeight="1">
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="17"/>
+      <c r="B11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="19"/>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
@@ -917,27 +1226,27 @@
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
       <c r="X11" s="18"/>
-      <c r="Y11" s="19"/>
+      <c r="Y11" s="18"/>
     </row>
     <row r="12" spans="1:29" ht="54.75" customHeight="1">
-      <c r="B12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="17"/>
+      <c r="B12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="19"/>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
@@ -945,27 +1254,27 @@
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
       <c r="X12" s="18"/>
-      <c r="Y12" s="19"/>
+      <c r="Y12" s="18"/>
     </row>
     <row r="13" spans="1:29" ht="54.75" customHeight="1">
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="17"/>
+      <c r="B13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
@@ -973,7 +1282,7 @@
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
       <c r="X13" s="18"/>
-      <c r="Y13" s="19"/>
+      <c r="Y13" s="18"/>
     </row>
     <row r="14" spans="1:29" ht="14.25" customHeight="1">
       <c r="E14" s="1"/>
@@ -984,27 +1293,39 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:29" ht="14.25" customHeight="1">
-      <c r="E16" s="1"/>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="5:6" ht="14.25" customHeight="1">
-      <c r="E17" s="1"/>
+      <c r="E17" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="5:6" ht="14.25" customHeight="1">
-      <c r="E18" s="1"/>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="5:6" ht="14.25" customHeight="1">
-      <c r="E19" s="1"/>
+      <c r="E19" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="5:6" ht="14.25" customHeight="1">
-      <c r="E20" s="1"/>
+      <c r="E20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="5:6" ht="14.25" customHeight="1">
-      <c r="E21" s="1"/>
+      <c r="E21" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="5:6" ht="14.25" customHeight="1">
@@ -4937,6 +5258,14 @@
     <mergeCell ref="Q8:Y8"/>
     <mergeCell ref="Q9:Y9"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1"/>
+    <hyperlink ref="E17" r:id="rId2"/>
+    <hyperlink ref="E18" r:id="rId3"/>
+    <hyperlink ref="E19" r:id="rId4"/>
+    <hyperlink ref="E20" r:id="rId5"/>
+    <hyperlink ref="E21" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Benchmark-competencia.xlsx
+++ b/Benchmark-competencia.xlsx
@@ -456,15 +456,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -485,10 +477,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -709,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -784,43 +784,43 @@
       <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="9"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:29" ht="70.5" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="6" t="s">
@@ -841,17 +841,17 @@
       <c r="P4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
@@ -859,34 +859,34 @@
     </row>
     <row r="5" spans="1:29" ht="54.75" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="8" t="s">
         <v>49</v>
       </c>
       <c r="L5" s="6" t="s">
@@ -895,60 +895,60 @@
       <c r="M5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="10">
         <v>5502</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="10">
         <v>171</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29" ht="73.5" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>5</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="12" t="s">
         <v>57</v>
       </c>
       <c r="L6" s="6" t="s">
@@ -957,54 +957,54 @@
       <c r="M6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="10">
         <v>103</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="10">
         <v>17</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
     </row>
     <row r="7" spans="1:29" ht="54.75" customHeight="1">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>10</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="12" t="s">
         <v>63</v>
       </c>
       <c r="L7" s="6" t="s">
@@ -1013,54 +1013,54 @@
       <c r="M7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="10">
         <v>290</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="13">
         <v>55</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
     </row>
     <row r="8" spans="1:29" ht="54.75" customHeight="1">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <v>100</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="12" t="s">
         <v>69</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -1069,54 +1069,54 @@
       <c r="M8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="13">
         <v>10258</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="13">
         <v>1051</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="1:29" ht="54.75" customHeight="1">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <v>5</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="12" t="s">
         <v>74</v>
       </c>
       <c r="L9" s="6" t="s">
@@ -1125,54 +1125,54 @@
       <c r="M9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="13">
         <v>2952</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="13">
         <v>64</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="P9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
     </row>
     <row r="10" spans="1:29" ht="54.75" customHeight="1">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="8">
         <v>20</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="12" t="s">
         <v>78</v>
       </c>
       <c r="L10" s="6" t="s">
@@ -1181,108 +1181,108 @@
       <c r="M10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="13">
         <v>0</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="13">
         <v>0</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
     </row>
     <row r="11" spans="1:29" ht="54.75" customHeight="1">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
     </row>
     <row r="12" spans="1:29" ht="54.75" customHeight="1">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
     </row>
     <row r="13" spans="1:29" ht="54.75" customHeight="1">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
     </row>
     <row r="14" spans="1:29" ht="14.25" customHeight="1">
       <c r="E14" s="1"/>

--- a/Benchmark-competencia.xlsx
+++ b/Benchmark-competencia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>TIPO EMPRESA</t>
   </si>
@@ -279,6 +279,21 @@
   </si>
   <si>
     <t>La empresa es hija de otra empresa y eso se refleja en su descuido online.</t>
+  </si>
+  <si>
+    <t>La página web tiene buena pinta a priori, pero está algo "rota" en algunos sitios. Tiene contenidos desactualizados, y cursos sin especificar fecha. A parte su página es excesivamente grande. Los espacios entre artículs sun muy grande.</t>
+  </si>
+  <si>
+    <t>Es una página web buena, y adaptada. Tiene secciones bien diferenciadas y es concisa.</t>
+  </si>
+  <si>
+    <t>Una página web muy vistosa que abusa mucho de los colores chillones. Muy larga y quizá sus menus superores no sean muy intuitivos.</t>
+  </si>
+  <si>
+    <t>Página web sencilla, con un tamaño de fotos inmenso. Su slayer superior es muy rápido y distrae mucho la atención.</t>
+  </si>
+  <si>
+    <t>Una página web anticuada, poco intuitiva y tamaño de las images e iconos muy grande.</t>
   </si>
 </sst>
 </file>
@@ -440,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -489,6 +504,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -709,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10:Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -966,7 +984,9 @@
       <c r="P6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
@@ -1022,7 +1042,9 @@
       <c r="P7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="14"/>
+      <c r="Q7" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
@@ -1078,7 +1100,9 @@
       <c r="P8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="14"/>
+      <c r="Q8" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
@@ -1134,7 +1158,9 @@
       <c r="P9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
@@ -1190,7 +1216,9 @@
       <c r="P10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="Q10" s="14"/>
+      <c r="Q10" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>

--- a/Benchmark-competencia.xlsx
+++ b/Benchmark-competencia.xlsx
@@ -492,10 +492,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,9 +507,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:Y10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -802,17 +802,17 @@
       <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="19"/>
     </row>
     <row r="4" spans="1:29" ht="70.5" customHeight="1">
       <c r="A4" s="3"/>
@@ -859,7 +859,7 @@
       <c r="P4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="20" t="s">
         <v>26</v>
       </c>
       <c r="R4" s="15"/>
@@ -922,7 +922,7 @@
       <c r="P5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="20" t="s">
         <v>27</v>
       </c>
       <c r="R5" s="15"/>
@@ -984,7 +984,7 @@
       <c r="P6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="14" t="s">
         <v>85</v>
       </c>
       <c r="R6" s="15"/>
@@ -1042,7 +1042,7 @@
       <c r="P7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="14" t="s">
         <v>86</v>
       </c>
       <c r="R7" s="15"/>
@@ -1100,7 +1100,7 @@
       <c r="P8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="20" t="s">
+      <c r="Q8" s="14" t="s">
         <v>87</v>
       </c>
       <c r="R8" s="15"/>
@@ -1158,7 +1158,7 @@
       <c r="P9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="Q9" s="14" t="s">
         <v>88</v>
       </c>
       <c r="R9" s="15"/>
@@ -1216,7 +1216,7 @@
       <c r="P10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="14" t="s">
         <v>89</v>
       </c>
       <c r="R10" s="15"/>
@@ -1246,7 +1246,7 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="14"/>
+      <c r="Q11" s="16"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
@@ -1274,7 +1274,7 @@
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="16"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
@@ -1302,7 +1302,7 @@
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
+      <c r="Q13" s="16"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
